--- a/設計/結合試験項目書_妥当性確認フロー制御.xlsx
+++ b/設計/結合試験項目書_妥当性確認フロー制御.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7656" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="試験内容内訳" sheetId="27" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="432">
   <si>
     <t>NTTD</t>
     <phoneticPr fontId="3"/>
@@ -590,17 +590,6 @@
   </si>
   <si>
     <t>エラー終了確認</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・コマンドがエラー終了し、ログファイルに処理内容が出力されていること。
-</t>
-    <rPh sb="20" eb="24">
-      <t>ショリナイヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュツリョク</t>
-    </rPh>
     <phoneticPr fontId="41"/>
   </si>
   <si>
@@ -2114,20 +2103,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>未更新理由</t>
-    <rPh sb="0" eb="3">
-      <t>ミコウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>MML個別取込_上書き実行済みフラグ：TRUEエラーメッセージがないため</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
     <r>
       <t>①受託領域処理フロー管理テーブルの処理状況が以下の通りであること。
 ・利活用可能患者IDテーブル作成：実施済み
@@ -2248,14 +2223,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-未更新</t>
-    <rPh sb="9" eb="12">
-      <t>ミコウシン</t>
     </rPh>
     <phoneticPr fontId="41"/>
   </si>
@@ -7335,6 +7302,64 @@
       <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・コマンドがエラー終了し、ログファイルに処理内容が出力されていること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・以下のメッセージが標準出力されていること。
+上書き取込が実施済みのため、Zipファイル格納は上書き取込オプションありでは実行不可です。</t>
+    </r>
+    <rPh sb="20" eb="24">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="41"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・コマンドがエラー終了し、ログファイルに処理内容が出力されていること。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・以下のメッセージが標準出力されていること。
+上書き取込が実施済みのため、Zipファイルコピーは上書き取込オプションありでは実行不可です。</t>
+    </r>
+    <rPh sb="20" eb="24">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="41"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="41"/>
   </si>
 </sst>
 </file>
@@ -7671,7 +7696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7833,12 +7858,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8441,7 +8460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8556,9 +8575,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="16" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8589,17 +8605,20 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="16" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8705,9 +8724,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="101" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="120">
@@ -17274,7 +17290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17288,45 +17304,41 @@
     <col min="6" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26.4">
+    <row r="2" spans="2:10" ht="26.4">
       <c r="B2" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="H2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="J2" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -17351,14 +17363,11 @@
         <f>SUM(E3:G3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="29">
-        <v>0</v>
-      </c>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -17383,14 +17392,11 @@
         <f t="shared" ref="I4:I21" si="1">SUM(E4:G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="29">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="29">
         <v>3</v>
@@ -17415,14 +17421,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J5" s="29">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="29">
         <v>3</v>
@@ -17447,16 +17450,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J6" s="37">
-        <v>1</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="29">
         <v>1</v>
@@ -17481,14 +17479,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="29">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="29">
         <v>2</v>
@@ -17513,378 +17508,342 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="2:10" s="44" customFormat="1">
+      <c r="B9" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43">
         <v>0</v>
       </c>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="2:11" s="45" customFormat="1">
-      <c r="B9" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="44">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43">
         <v>0</v>
       </c>
-      <c r="E9" s="44">
-        <v>1</v>
-      </c>
-      <c r="F9" s="44">
-        <v>1</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="2:10" s="44" customFormat="1">
+      <c r="B10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43">
         <v>0</v>
       </c>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="2:11" s="45" customFormat="1">
-      <c r="B10" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="44">
-        <v>1</v>
-      </c>
-      <c r="D10" s="44">
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43">
         <v>0</v>
       </c>
-      <c r="E10" s="44">
-        <v>1</v>
-      </c>
-      <c r="F10" s="44">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44">
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="44" customFormat="1">
+      <c r="B11" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43">
         <v>0</v>
       </c>
-      <c r="K10" s="44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="45" customFormat="1">
-      <c r="B11" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44">
+      <c r="E11" s="43">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43">
+        <v>1</v>
+      </c>
+      <c r="G11" s="43">
         <v>0</v>
       </c>
-      <c r="E11" s="44">
-        <v>3</v>
-      </c>
-      <c r="F11" s="44">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="44">
+      <c r="H11" s="43">
         <f t="shared" ref="H11" si="2">SUM(C11:G11)</f>
         <v>5</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="44" customFormat="1">
+      <c r="B12" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="43">
+        <v>2</v>
+      </c>
+      <c r="D12" s="43">
         <v>0</v>
       </c>
-      <c r="K11" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="45" customFormat="1">
-      <c r="B12" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="44">
-        <v>2</v>
-      </c>
-      <c r="D12" s="44">
+      <c r="E12" s="43">
+        <v>1</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43">
         <v>0</v>
       </c>
-      <c r="E12" s="44">
-        <v>1</v>
-      </c>
-      <c r="F12" s="44">
-        <v>1</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="44">
+      <c r="H12" s="43">
         <f t="shared" ref="H12" si="3">SUM(C12:G12)</f>
         <v>4</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="44" customFormat="1">
+      <c r="B13" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="43">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43">
         <v>0</v>
       </c>
-      <c r="K12" s="44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="45" customFormat="1">
-      <c r="B13" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="44">
-        <v>1</v>
-      </c>
-      <c r="D13" s="44">
+      <c r="E13" s="43">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43">
         <v>0</v>
       </c>
-      <c r="E13" s="44">
-        <v>1</v>
-      </c>
-      <c r="F13" s="44">
-        <v>1</v>
-      </c>
-      <c r="G13" s="44">
-        <v>0</v>
-      </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <f t="shared" ref="H13" si="4">SUM(C13:G13)</f>
         <v>3</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="2:10" s="44" customFormat="1">
+      <c r="B14" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="43">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43">
         <v>0</v>
       </c>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="2:11" s="45" customFormat="1">
-      <c r="B14" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="E14" s="43">
+        <v>1</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="43">
         <v>0</v>
       </c>
-      <c r="E14" s="44">
-        <v>1</v>
-      </c>
-      <c r="F14" s="44">
-        <v>1</v>
-      </c>
-      <c r="G14" s="44">
-        <v>0</v>
-      </c>
-      <c r="H14" s="44">
+      <c r="H14" s="43">
         <f t="shared" ref="H14" si="5">SUM(C14:G14)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="2:10" s="44" customFormat="1">
+      <c r="B15" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43">
         <v>0</v>
       </c>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="2:11" s="45" customFormat="1">
-      <c r="B15" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44">
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43">
         <v>0</v>
       </c>
-      <c r="E15" s="44">
-        <v>1</v>
-      </c>
-      <c r="F15" s="44">
-        <v>1</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0</v>
-      </c>
-      <c r="H15" s="44">
+      <c r="H15" s="43">
         <f t="shared" ref="H15" si="6">SUM(C15:G15)</f>
         <v>3</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="44" customFormat="1">
+      <c r="B16" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="43">
+        <v>1</v>
+      </c>
+      <c r="D16" s="43">
         <v>0</v>
       </c>
-      <c r="K15" s="44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="45" customFormat="1">
-      <c r="B16" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="44">
-        <v>1</v>
-      </c>
-      <c r="D16" s="44">
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43">
         <v>0</v>
       </c>
-      <c r="E16" s="44">
-        <v>1</v>
-      </c>
-      <c r="F16" s="44">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="44">
+      <c r="H16" s="43">
         <f t="shared" ref="H16" si="7">SUM(C16:G16)</f>
         <v>3</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="2:10" s="44" customFormat="1">
+      <c r="B17" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="43">
         <v>0</v>
       </c>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="2:11" s="45" customFormat="1">
-      <c r="B17" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="44">
+      <c r="E17" s="43">
+        <v>3</v>
+      </c>
+      <c r="F17" s="43">
+        <v>1</v>
+      </c>
+      <c r="G17" s="43">
         <v>0</v>
       </c>
-      <c r="E17" s="44">
-        <v>3</v>
-      </c>
-      <c r="F17" s="44">
-        <v>1</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
+      <c r="H17" s="43">
         <f t="shared" ref="H17" si="8">SUM(C17:G17)</f>
         <v>5</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="44" customFormat="1">
+      <c r="B18" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="43">
+        <v>2</v>
+      </c>
+      <c r="D18" s="43">
         <v>0</v>
       </c>
-      <c r="K17" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="45" customFormat="1">
-      <c r="B18" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="44">
-        <v>2</v>
-      </c>
-      <c r="D18" s="44">
+      <c r="E18" s="43">
+        <v>1</v>
+      </c>
+      <c r="F18" s="43">
+        <v>1</v>
+      </c>
+      <c r="G18" s="43">
         <v>0</v>
       </c>
-      <c r="E18" s="44">
-        <v>1</v>
-      </c>
-      <c r="F18" s="44">
-        <v>1</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <f t="shared" ref="H18" si="9">SUM(C18:G18)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="44" customFormat="1">
+      <c r="B19" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
         <v>0</v>
       </c>
-      <c r="K18" s="44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="45" customFormat="1">
-      <c r="B19" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44">
+      <c r="F19" s="43">
         <v>0</v>
       </c>
-      <c r="F19" s="44">
+      <c r="G19" s="43">
         <v>0</v>
       </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-      <c r="H19" s="44">
+      <c r="H19" s="43">
         <f>SUM(C19:G19)</f>
         <v>2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="44">
-        <v>0</v>
-      </c>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="29">
         <v>3</v>
@@ -17909,14 +17868,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="29">
         <v>3</v>
@@ -17941,16 +17897,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J21" s="37">
-        <v>1</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="G22" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="31">
         <f>SUM(H3:H21)</f>
@@ -17960,11 +17911,7 @@
         <f>SUM(I3:I21)</f>
         <v>36</v>
       </c>
-      <c r="J22" s="31">
-        <f>SUM(J3:J21)</f>
-        <v>2</v>
-      </c>
-      <c r="K22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="41"/>
@@ -18032,11 +17979,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -18274,7 +18221,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -18305,7 +18252,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -18336,10 +18283,10 @@
         <v>55</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -18367,7 +18314,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -18392,16 +18339,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -18423,13 +18370,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>38</v>
@@ -18454,16 +18401,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -18491,10 +18438,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
@@ -18522,7 +18469,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>51</v>
@@ -18547,13 +18494,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>38</v>
@@ -18584,10 +18531,10 @@
         <v>55</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -18615,10 +18562,10 @@
         <v>55</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
@@ -18646,7 +18593,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>51</v>
@@ -18948,11 +18895,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -19001,7 +18948,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -19187,10 +19134,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -19218,10 +19165,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -19249,13 +19196,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -19280,13 +19227,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -19308,16 +19255,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -19339,13 +19286,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>38</v>
@@ -19370,16 +19317,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -19404,13 +19351,13 @@
         <v>49</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
@@ -19435,10 +19382,10 @@
         <v>50</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>51</v>
@@ -19463,13 +19410,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>38</v>
@@ -19497,13 +19444,13 @@
         <v>56</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -19528,13 +19475,13 @@
         <v>49</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
@@ -19559,10 +19506,10 @@
         <v>50</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>51</v>
@@ -19587,13 +19534,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>38</v>
@@ -19621,13 +19568,13 @@
         <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -19652,13 +19599,13 @@
         <v>49</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
@@ -19683,10 +19630,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>51</v>
@@ -19711,13 +19658,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>38</v>
@@ -19745,13 +19692,13 @@
         <v>56</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -19776,13 +19723,13 @@
         <v>49</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="19"/>
@@ -19807,10 +19754,10 @@
         <v>50</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>51</v>
@@ -20220,11 +20167,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -20273,7 +20220,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -20462,7 +20409,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -20490,10 +20437,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -20521,13 +20468,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -20552,13 +20499,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -20580,16 +20527,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="F16" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -20611,13 +20558,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>38</v>
@@ -20645,13 +20592,13 @@
         <v>56</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -20676,13 +20623,13 @@
         <v>49</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
@@ -20707,10 +20654,10 @@
         <v>50</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>51</v>
@@ -20735,13 +20682,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>38</v>
@@ -20769,10 +20716,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>40</v>
@@ -20800,13 +20747,13 @@
         <v>49</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
@@ -20831,13 +20778,13 @@
         <v>50</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
@@ -20859,16 +20806,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="F25" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
@@ -20890,13 +20837,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>38</v>
@@ -20924,13 +20871,13 @@
         <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
@@ -20955,13 +20902,13 @@
         <v>49</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="19"/>
@@ -20986,10 +20933,10 @@
         <v>50</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>51</v>
@@ -21363,11 +21310,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -21416,7 +21363,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -21599,13 +21546,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -21633,10 +21580,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -21664,13 +21611,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -21695,13 +21642,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -21723,13 +21670,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -21757,13 +21704,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -21788,13 +21735,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -21819,10 +21766,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -21847,13 +21794,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -21881,13 +21828,13 @@
         <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -21912,13 +21859,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -21943,10 +21890,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -22229,11 +22176,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -22282,7 +22229,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -22465,13 +22412,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -22499,10 +22446,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -22530,13 +22477,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -22561,13 +22508,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -22589,13 +22536,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -22623,13 +22570,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -22654,13 +22601,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -22685,10 +22632,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -22713,13 +22660,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -22747,13 +22694,13 @@
         <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -22778,13 +22725,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -22809,10 +22756,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -23095,11 +23042,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -23148,7 +23095,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -23331,13 +23278,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -23365,10 +23312,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -23396,13 +23343,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -23427,10 +23374,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -23455,16 +23402,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
@@ -23486,16 +23433,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -23517,13 +23464,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>38</v>
@@ -23551,13 +23498,13 @@
         <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
@@ -23582,13 +23529,13 @@
         <v>49</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
@@ -23613,10 +23560,10 @@
         <v>50</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>51</v>
@@ -23641,13 +23588,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>38</v>
@@ -23675,13 +23622,13 @@
         <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
@@ -23706,13 +23653,13 @@
         <v>49</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
@@ -23737,10 +23684,10 @@
         <v>50</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>51</v>
@@ -24061,11 +24008,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -24114,7 +24061,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -24297,13 +24244,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -24331,10 +24278,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -24362,13 +24309,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -24393,13 +24340,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -24421,13 +24368,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -24455,13 +24402,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -24486,13 +24433,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -24517,10 +24464,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -24545,13 +24492,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -24579,13 +24526,13 @@
         <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -24610,13 +24557,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -24641,10 +24588,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -24927,11 +24874,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -24980,7 +24927,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -25163,13 +25110,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -25197,10 +25144,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -25228,13 +25175,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -25259,13 +25206,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -25287,13 +25234,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -25321,13 +25268,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -25352,13 +25299,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -25383,10 +25330,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -25411,13 +25358,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -25445,13 +25392,13 @@
         <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -25476,13 +25423,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -25507,10 +25454,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -25535,13 +25482,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>38</v>
@@ -25569,13 +25516,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
@@ -25600,13 +25547,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -25631,10 +25578,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>51</v>
@@ -25659,13 +25606,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>38</v>
@@ -25693,13 +25640,13 @@
         <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
@@ -25724,13 +25671,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -25755,10 +25702,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>51</v>
@@ -26149,11 +26096,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -26202,7 +26149,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -26385,13 +26332,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -26419,10 +26366,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -26450,13 +26397,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F14" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -26481,13 +26428,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F15" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -26509,16 +26456,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
@@ -26540,16 +26487,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -26571,13 +26518,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>38</v>
@@ -26605,13 +26552,13 @@
         <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F19" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
@@ -26636,13 +26583,13 @@
         <v>49</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
@@ -26667,10 +26614,10 @@
         <v>50</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>51</v>
@@ -26695,13 +26642,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>38</v>
@@ -26729,10 +26676,10 @@
         <v>47</v>
       </c>
       <c r="D23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>40</v>
@@ -26760,13 +26707,13 @@
         <v>49</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F24" s="18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
@@ -26791,13 +26738,13 @@
         <v>50</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
@@ -26819,16 +26766,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -26850,16 +26797,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
@@ -26881,13 +26828,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>38</v>
@@ -26915,13 +26862,13 @@
         <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F29" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
@@ -26946,13 +26893,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="F30" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -26977,10 +26924,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>51</v>
@@ -27393,11 +27340,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -27446,7 +27393,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -27629,13 +27576,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -27663,10 +27610,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -27694,13 +27641,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -27725,10 +27672,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -27753,13 +27700,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -27787,10 +27734,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>40</v>
@@ -27818,13 +27765,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -27849,10 +27796,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -28043,40 +27990,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="52" t="s">
-        <v>421</v>
+      <c r="B2" s="51" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="39.6">
       <c r="C3" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="F3" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="H3" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>412</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -28084,28 +28031,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="46" t="b">
+        <v>399</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H4" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>397</v>
+      <c r="I4" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L4" s="29"/>
     </row>
@@ -28114,28 +28061,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="H5" s="46" t="b">
+        <v>400</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="46" t="s">
-        <v>397</v>
+      <c r="I5" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L5" s="29"/>
     </row>
@@ -28144,28 +28091,28 @@
         <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="H6" s="46" t="b">
+        <v>399</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="46" t="s">
-        <v>397</v>
+      <c r="I6" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L6" s="29"/>
     </row>
@@ -28174,28 +28121,28 @@
         <v>4</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="H7" s="46" t="b">
+        <v>401</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>397</v>
+      <c r="I7" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L7" s="29"/>
     </row>
@@ -28204,90 +28151,90 @@
         <v>5</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="G8" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="48">
+        <v>6</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="H9" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="C9" s="49">
-        <v>6</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="H9" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="L9" s="49"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="2:12">
       <c r="C10" s="29">
         <v>7</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="H10" s="46" t="b">
+        <v>399</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>397</v>
+      <c r="I10" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L10" s="29"/>
     </row>
@@ -28296,28 +28243,28 @@
         <v>8</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="H11" s="46" t="b">
+        <v>403</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>397</v>
+      <c r="I11" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L11" s="29"/>
     </row>
@@ -28326,28 +28273,28 @@
         <v>9</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="H12" s="46" t="b">
+        <v>399</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>397</v>
+      <c r="I12" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L12" s="29"/>
     </row>
@@ -28356,28 +28303,28 @@
         <v>10</v>
       </c>
       <c r="D13" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="H13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>397</v>
+      <c r="K13" s="45" t="s">
+        <v>393</v>
       </c>
       <c r="L13" s="29"/>
     </row>
@@ -28386,92 +28333,92 @@
         <v>11</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="G14" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="C15" s="48">
+        <v>12</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="L14" s="88" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="C15" s="49">
-        <v>12</v>
-      </c>
-      <c r="D15" s="49" t="s">
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="2:12" ht="39.6">
+      <c r="C16" s="48">
+        <v>13</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="G15" s="50" t="s">
+      <c r="J16" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K16" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="H15" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="2:12" ht="39.6">
-      <c r="C16" s="49">
-        <v>13</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>397</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="41"/>
@@ -28539,11 +28486,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -28592,7 +28539,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -28775,13 +28722,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -28809,10 +28756,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -28840,13 +28787,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -28871,10 +28818,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -28899,13 +28846,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -28933,10 +28880,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>40</v>
@@ -28964,13 +28911,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -28995,10 +28942,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -29023,13 +28970,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -29057,10 +29004,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>40</v>
@@ -29088,13 +29035,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -29119,10 +29066,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -29147,13 +29094,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>38</v>
@@ -29181,10 +29128,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>40</v>
@@ -29212,13 +29159,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -29243,10 +29190,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>51</v>
@@ -29271,13 +29218,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>38</v>
@@ -29305,10 +29252,10 @@
         <v>47</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>40</v>
@@ -29336,13 +29283,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -29367,10 +29314,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>51</v>
@@ -29395,13 +29342,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>38</v>
@@ -29429,13 +29376,13 @@
         <v>56</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
@@ -29460,13 +29407,13 @@
         <v>49</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
@@ -29491,10 +29438,10 @@
         <v>50</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>51</v>
@@ -29519,13 +29466,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>38</v>
@@ -29553,10 +29500,10 @@
         <v>47</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>40</v>
@@ -29584,13 +29531,13 @@
         <v>49</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
@@ -29615,10 +29562,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>51</v>
@@ -29643,13 +29590,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>38</v>
@@ -29674,16 +29621,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="19"/>
@@ -29708,13 +29655,13 @@
         <v>49</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
@@ -29739,10 +29686,10 @@
         <v>50</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>51</v>
@@ -29767,13 +29714,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>38</v>
@@ -29801,10 +29748,10 @@
         <v>47</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>40</v>
@@ -29832,13 +29779,13 @@
         <v>49</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
@@ -29863,10 +29810,10 @@
         <v>50</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>51</v>
@@ -29891,13 +29838,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>38</v>
@@ -29922,16 +29869,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="19"/>
@@ -29956,13 +29903,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="19"/>
@@ -29987,10 +29934,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>51</v>
@@ -30015,13 +29962,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>38</v>
@@ -30049,10 +29996,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>40</v>
@@ -30080,13 +30027,13 @@
         <v>49</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="19"/>
@@ -30111,13 +30058,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="19"/>
@@ -30139,13 +30086,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>38</v>
@@ -30173,13 +30120,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="19"/>
@@ -30204,13 +30151,13 @@
         <v>49</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="19"/>
@@ -30235,10 +30182,10 @@
         <v>50</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>51</v>
@@ -30263,13 +30210,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>38</v>
@@ -30285,7 +30232,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" ht="39.6">
+    <row r="61" spans="1:14" s="2" customFormat="1" ht="52.8">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -30297,13 +30244,13 @@
         <v>56</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>57</v>
+        <v>169</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>430</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="19"/>
@@ -30328,13 +30275,13 @@
         <v>49</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="19"/>
@@ -30359,10 +30306,10 @@
         <v>50</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>51</v>
@@ -31165,13 +31112,13 @@
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="62"/>
@@ -31184,11 +31131,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -31214,16 +31161,16 @@
       </c>
       <c r="F3" s="78"/>
       <c r="G3" s="63"/>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="40" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="73"/>
@@ -31237,7 +31184,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -31253,12 +31200,12 @@
         <f>COUNTIF(G12:G14,"ＮＧ")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="75"/>
       <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:14" ht="89.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="85" t="s">
@@ -31277,7 +31224,7 @@
       <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="45" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -31296,7 +31243,7 @@
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:14" ht="58.5" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -31315,7 +31262,7 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:14" ht="114.75" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -31394,13 +31341,13 @@
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="40" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="55"/>
@@ -31420,13 +31367,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -31451,16 +31398,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="19"/>
@@ -31485,10 +31432,10 @@
         <v>50</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>51</v>
@@ -31513,13 +31460,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -31544,16 +31491,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
@@ -31578,10 +31525,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>51</v>
@@ -31772,11 +31719,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -31825,7 +31772,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -32014,7 +31961,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -32042,10 +31989,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -32073,13 +32020,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -32104,10 +32051,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -32138,7 +32085,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -32166,10 +32113,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>40</v>
@@ -32197,13 +32144,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -32228,10 +32175,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -32460,11 +32407,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -32513,7 +32460,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -32702,7 +32649,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -32730,10 +32677,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -32761,13 +32708,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -32792,10 +32739,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -32820,13 +32767,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -32851,16 +32798,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -32885,13 +32832,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -32916,10 +32863,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -33148,11 +33095,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -33201,7 +33148,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -33384,13 +33331,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -33418,10 +33365,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -33449,13 +33396,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -33480,10 +33427,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -33508,13 +33455,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -33542,10 +33489,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>40</v>
@@ -33573,13 +33520,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -33604,10 +33551,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -33632,13 +33579,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -33666,10 +33613,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>40</v>
@@ -33697,13 +33644,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -33728,10 +33675,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -33756,13 +33703,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>38</v>
@@ -33790,10 +33737,10 @@
         <v>47</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>40</v>
@@ -33821,13 +33768,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -33852,10 +33799,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>51</v>
@@ -33880,13 +33827,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>38</v>
@@ -33914,10 +33861,10 @@
         <v>47</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>40</v>
@@ -33945,13 +33892,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -33976,10 +33923,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>51</v>
@@ -34004,13 +33951,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>38</v>
@@ -34038,13 +33985,13 @@
         <v>56</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
@@ -34069,13 +34016,13 @@
         <v>49</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
@@ -34100,10 +34047,10 @@
         <v>50</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>51</v>
@@ -34128,13 +34075,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>38</v>
@@ -34162,10 +34109,10 @@
         <v>47</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>40</v>
@@ -34193,13 +34140,13 @@
         <v>49</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
@@ -34224,10 +34171,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>51</v>
@@ -34252,13 +34199,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>38</v>
@@ -34286,10 +34233,10 @@
         <v>47</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>40</v>
@@ -34317,13 +34264,13 @@
         <v>49</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
@@ -34348,10 +34295,10 @@
         <v>50</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>51</v>
@@ -34376,13 +34323,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>38</v>
@@ -34410,10 +34357,10 @@
         <v>47</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>40</v>
@@ -34441,13 +34388,13 @@
         <v>49</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
@@ -34472,10 +34419,10 @@
         <v>50</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>51</v>
@@ -34500,13 +34447,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>38</v>
@@ -34534,10 +34481,10 @@
         <v>47</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>40</v>
@@ -34565,13 +34512,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="19"/>
@@ -34596,10 +34543,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>51</v>
@@ -34624,13 +34571,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>38</v>
@@ -34658,10 +34605,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>40</v>
@@ -34689,13 +34636,13 @@
         <v>49</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="19"/>
@@ -34720,13 +34667,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="19"/>
@@ -34748,13 +34695,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>38</v>
@@ -34782,13 +34729,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="19"/>
@@ -34813,13 +34760,13 @@
         <v>49</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="19"/>
@@ -34844,10 +34791,10 @@
         <v>50</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>51</v>
@@ -34872,13 +34819,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>38</v>
@@ -34894,7 +34841,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" ht="39.6">
+    <row r="61" spans="1:14" s="2" customFormat="1" ht="52.8">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -34906,13 +34853,13 @@
         <v>56</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>57</v>
+        <v>165</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>429</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="19"/>
@@ -34937,13 +34884,13 @@
         <v>49</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="19"/>
@@ -34968,10 +34915,10 @@
         <v>50</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>51</v>
@@ -35794,11 +35741,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -35847,7 +35794,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -36030,13 +35977,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -36064,10 +36011,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -36095,13 +36042,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -36126,10 +36073,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -36154,13 +36101,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -36188,10 +36135,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>40</v>
@@ -36219,13 +36166,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -36250,10 +36197,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -36278,13 +36225,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -36312,13 +36259,13 @@
         <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -36343,13 +36290,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -36374,10 +36321,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -36659,11 +36606,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -36712,7 +36659,7 @@
       <c r="C4" s="80"/>
       <c r="D4" s="81"/>
       <c r="E4" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="84"/>
@@ -36895,13 +36842,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -36929,10 +36876,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>40</v>
@@ -36960,13 +36907,13 @@
         <v>49</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -36991,10 +36938,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>51</v>
@@ -37019,13 +36966,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -37053,13 +37000,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -37084,13 +37031,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -37115,10 +37062,10 @@
         <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -37143,13 +37090,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -37177,10 +37124,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>40</v>
@@ -37208,13 +37155,13 @@
         <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -37239,10 +37186,10 @@
         <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
@@ -37267,13 +37214,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>38</v>
@@ -37301,13 +37248,13 @@
         <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
@@ -37332,13 +37279,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
@@ -37363,10 +37310,10 @@
         <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>51</v>
@@ -37391,13 +37338,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>38</v>
@@ -37425,13 +37372,13 @@
         <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
@@ -37456,13 +37403,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
@@ -37487,10 +37434,10 @@
         <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>51</v>
@@ -37515,13 +37462,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>38</v>
@@ -37549,13 +37496,13 @@
         <v>56</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
@@ -37580,13 +37527,13 @@
         <v>49</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
@@ -37611,10 +37558,10 @@
         <v>50</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>51</v>
@@ -37639,13 +37586,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>38</v>
@@ -37673,13 +37620,13 @@
         <v>56</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="19"/>
@@ -37704,13 +37651,13 @@
         <v>49</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
@@ -37735,10 +37682,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>51</v>
@@ -38237,11 +38184,11 @@
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="67" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
@@ -38476,10 +38423,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>38</v>
@@ -38510,7 +38457,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>40</v>
@@ -38541,10 +38488,10 @@
         <v>46</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
@@ -38572,10 +38519,10 @@
         <v>46</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
@@ -38597,13 +38544,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>38</v>
@@ -38634,10 +38581,10 @@
         <v>46</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
@@ -38665,10 +38612,10 @@
         <v>46</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
@@ -38696,7 +38643,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>51</v>
@@ -38721,13 +38668,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>38</v>
@@ -38758,10 +38705,10 @@
         <v>46</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
@@ -38789,10 +38736,10 @@
         <v>46</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
@@ -38820,7 +38767,7 @@
         <v>46</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>51</v>
